--- a/FieldData/2015/xlsx_analysis/09-008-A Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-008-A Field Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Dropbox/FREMP_Dan-Megan/Field Data/Finished/09-008-A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_EEA904297E3A872BBBD0FFC8BAA399EFAC0B1447" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA6DD2D-5AF9-4CF7-AEC7-94F0FA1E1FC9}"/>
   <bookViews>
-    <workbookView xWindow="28580" yWindow="460" windowWidth="40740" windowHeight="25040"/>
+    <workbookView xWindow="3390" yWindow="1080" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="59">
-  <si>
-    <t>SITE ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>PLOT</t>
   </si>
@@ -35,42 +33,21 @@
     <t>COMMUNITY</t>
   </si>
   <si>
-    <t>ELEVATION</t>
-  </si>
-  <si>
     <t>Scientific</t>
   </si>
   <si>
     <t>Common</t>
   </si>
   <si>
-    <t>% Cover</t>
-  </si>
-  <si>
-    <t>FWR/SEED</t>
-  </si>
-  <si>
-    <t>Max LH (cm)</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>AVG.</t>
-  </si>
-  <si>
     <t>09-008</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Yellow iris</t>
   </si>
   <si>
@@ -171,9 +148,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>*could not do Robel pole measurements due to steep slope</t>
   </si>
   <si>
     <r>
@@ -196,9 +170,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>N/E/I/T/U</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Alisma </t>
     </r>
@@ -224,11 +195,23 @@
   <si>
     <t>Carex lyngbyei</t>
   </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>PERCENT_COVER</t>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+  </si>
+  <si>
+    <t>MAX_LH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -239,13 +222,6 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -300,6 +276,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -387,160 +369,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -554,35 +536,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,6 +696,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1960,415 +1945,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IN57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD13"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="3.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="37.5" style="9" customWidth="1"/>
-    <col min="13" max="252" width="8.625" style="9" customWidth="1"/>
-    <col min="253" max="16384" width="8.625" style="10"/>
+    <col min="1" max="1" width="5.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="8" customWidth="1"/>
+    <col min="9" max="248" width="8.59765625" style="8" customWidth="1"/>
+    <col min="249" max="16384" width="8.59765625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
-        <v>60</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1">
-        <v>148</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="4">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -2376,29 +2289,25 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1">
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -2406,27 +2315,23 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -2434,29 +2339,23 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
         <v>7</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2464,27 +2363,23 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.5</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -2492,27 +2387,23 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2520,27 +2411,23 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -2548,27 +2435,23 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>80</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -2576,29 +2459,23 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -2606,29 +2483,23 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -2636,29 +2507,25 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
         <v>50</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1">
+      <c r="H23" s="1">
         <v>162</v>
       </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -2666,29 +2533,23 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>3</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -2696,27 +2557,23 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="D25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -2724,27 +2581,23 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>55</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -2752,29 +2605,23 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
@@ -2782,27 +2629,23 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
         <v>28</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -2810,27 +2653,23 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="4">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -2838,27 +2677,23 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
         <v>50</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
@@ -2866,29 +2701,23 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
         <v>22</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>5</v>
@@ -2896,27 +2725,23 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
@@ -2924,27 +2749,23 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="D33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3">
         <v>0.5</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2952,29 +2773,23 @@
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2982,195 +2797,163 @@
       <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="3">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="4">
-        <v>25</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="G38" s="3">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="3">
+        <v>80</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="3">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="4">
-        <v>30</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="4">
-        <v>80</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="4">
-        <v>12</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="4">
-        <v>5</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
@@ -3178,29 +2961,23 @@
       <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="4">
+      <c r="D42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3">
         <v>25</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -3208,27 +2985,23 @@
       <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="4">
+      <c r="G43" s="3">
         <v>40</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -3236,27 +3009,23 @@
       <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="4">
-        <v>2</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
         <v>3</v>
@@ -3264,27 +3033,23 @@
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="5" t="s">
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
         <v>30</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -3292,23 +3057,19 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="4">
+      <c r="D46" s="4"/>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3">
         <v>5</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
@@ -3316,29 +3077,23 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="D47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="3">
         <v>70</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -3346,27 +3101,23 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>40</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
         <v>4</v>
@@ -3374,27 +3125,23 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
@@ -3402,27 +3149,23 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2">
         <v>4</v>
@@ -3430,29 +3173,23 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="4">
+      <c r="G51" s="3">
         <v>7</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2">
         <v>4</v>
@@ -3460,27 +3197,23 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
         <v>5</v>
@@ -3488,29 +3221,23 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="4">
+      <c r="D53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="3">
         <v>70</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
         <v>5</v>
@@ -3518,29 +3245,23 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="4">
+      <c r="G54" s="3">
         <v>7</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
@@ -3548,27 +3269,23 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
@@ -3576,29 +3293,23 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
@@ -3606,19 +3317,15 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="4">
+      <c r="D57" s="4"/>
+      <c r="E57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3">
         <v>30</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="2"/>
+      <c r="H57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FieldData/2015/xlsx_analysis/09-008-A Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-008-A Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_EEA904297E3A872BBBD0FFC8BAA399EFAC0B1447" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA6DD2D-5AF9-4CF7-AEC7-94F0FA1E1FC9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_EEA904297E3A872BBBD0FFC8BAA399EFAC0B1447" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82DC86B2-61F1-4630-B364-B06000453098}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1080" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="54">
   <si>
     <t>PLOT</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Scientific</t>
-  </si>
-  <si>
-    <t>Common</t>
   </si>
   <si>
     <t>N</t>
@@ -206,6 +203,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -546,9 +549,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -561,10 +561,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1950,52 +1970,52 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="8" customWidth="1"/>
-    <col min="9" max="248" width="8.59765625" style="8" customWidth="1"/>
-    <col min="249" max="16384" width="8.59765625" style="9"/>
+    <col min="1" max="1" width="5.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="7" customWidth="1"/>
+    <col min="9" max="248" width="8.59765625" style="7" customWidth="1"/>
+    <col min="249" max="16384" width="8.59765625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2004,159 +2024,157 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1">
-        <v>148</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3">
         <v>30</v>
@@ -2165,7 +2183,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -2174,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3">
         <v>20</v>
@@ -2189,7 +2207,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -2197,826 +2215,836 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
+      <c r="D12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
-        <v>162</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G26" s="3">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G28" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>21</v>
+      <c r="D29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="H29" s="1">
+        <v>148</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="3">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>42</v>
+      <c r="D33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>12</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>162</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -3025,31 +3053,31 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -3057,19 +3085,23 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G46" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
@@ -3077,23 +3109,23 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>40</v>
-      </c>
-      <c r="G47" s="3">
-        <v>70</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -3102,37 +3134,37 @@
         <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3141,175 +3173,169 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2">
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G53" s="3">
-        <v>70</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G54" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
@@ -3319,15 +3345,20 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G57" s="3">
         <v>30</v>
       </c>
       <c r="H57" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN57">
+    <sortCondition ref="F2:F57"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
   <headerFooter>
